--- a/Homework1/mis3371-homework1-data-dictionary.xlsx
+++ b/Homework1/mis3371-homework1-data-dictionary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12816\Desktop\MIS3371\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Family\Ashley\MIS3371\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B500128-0D9E-4616-965D-DC0EDE618929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFA7344-890B-464D-AB6F-27008D091AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info " sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="82">
   <si>
     <t>Table Name</t>
   </si>
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t>Data dictionary for Patient Registration form</t>
+  </si>
+  <si>
+    <t>password_hashed_match</t>
   </si>
 </sst>
 </file>
@@ -686,7 +689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -754,16 +757,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{531EECC1-0268-4345-B1C2-FDD239BC308B}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
     <col min="7" max="7" width="45.5703125" customWidth="1"/>
@@ -858,7 +861,7 @@
         <v>25</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1045,6 +1048,9 @@
       <c r="G10" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -1118,7 +1124,7 @@
         <v>54</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1248,24 +1254,33 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>61</v>
@@ -1276,25 +1291,16 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1350,6 +1356,9 @@
       </c>
       <c r="I25" s="2" t="s">
         <v>32</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1376,6 +1385,38 @@
       </c>
       <c r="I26" s="2" t="s">
         <v>33</v>
+      </c>
+      <c r="J26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27">
+        <v>20</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Homework1/mis3371-homework1-data-dictionary.xlsx
+++ b/Homework1/mis3371-homework1-data-dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Family\Ashley\MIS3371\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFA7344-890B-464D-AB6F-27008D091AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2C03D6-3DAF-45BB-AB0A-F2936E80D8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info " sheetId="1" r:id="rId1"/>
@@ -690,7 +690,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,7 +731,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>45818</v>
+        <v>45821</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -760,7 +760,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
